--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\4th_Year\EEE4120F\Prac_2\4120F_Prac2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48490C63-857F-422B-8F79-E3FB3FEF68A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ECFC61-C1FE-406C-826A-D1519067D2E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF5A649F-1780-4CF6-B272-A8C9F6792F71}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
-    <t>Alan2</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>8 Threads</t>
+  </si>
+  <si>
+    <t>greatwall</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,79 +423,43 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.84</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.383</v>
-      </c>
-      <c r="E3">
-        <v>1.9128099999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.97431199999999996</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>321</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.89</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.4370000000000001</v>
-      </c>
-      <c r="E4">
-        <v>1.9007499999999999</v>
-      </c>
-      <c r="F4">
-        <v>1.01223</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>264</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.81508</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.50763</v>
-      </c>
-      <c r="E5">
-        <v>1.8923099999999999</v>
-      </c>
-      <c r="F5">
-        <v>1.0101800000000001</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -503,54 +467,24 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9.2728199999999994</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.8476999999999997</v>
-      </c>
-      <c r="E7">
-        <v>9.17727</v>
-      </c>
-      <c r="F7">
-        <v>4.7988400000000002</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>640</v>
       </c>
-      <c r="B8" s="1">
-        <v>9.4698899999999995</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7.1471299999999998</v>
-      </c>
-      <c r="E8">
-        <v>9.3851399999999998</v>
-      </c>
-      <c r="F8">
-        <v>4.8421399999999997</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>640</v>
       </c>
-      <c r="B9" s="1">
-        <v>9.34877</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7.3682999999999996</v>
-      </c>
-      <c r="E9">
-        <v>9.3320900000000009</v>
-      </c>
-      <c r="F9">
-        <v>4.7911799999999998</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
@@ -558,54 +492,24 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.78189</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.1899900000000001</v>
-      </c>
-      <c r="E11">
-        <v>1.7238899999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.98006499999999996</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>304</v>
       </c>
-      <c r="B12" s="1">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.4874000000000001</v>
-      </c>
-      <c r="E12">
-        <v>1.76783</v>
-      </c>
-      <c r="F12">
-        <v>0.96011100000000005</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>300</v>
       </c>
-      <c r="B13" s="1">
-        <v>1.71502</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.3904700000000001</v>
-      </c>
-      <c r="E13">
-        <v>1.7674099999999999</v>
-      </c>
-      <c r="F13">
-        <v>0.95880200000000004</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\4th_Year\EEE4120F\Prac_2\4120F_Prac2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ECFC61-C1FE-406C-826A-D1519067D2E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83673564-8967-41E4-A7DA-D0E2E3DA6ADC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF5A649F-1780-4CF6-B272-A8C9F6792F71}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Image</t>
   </si>
@@ -39,22 +39,40 @@
     <t>Golden</t>
   </si>
   <si>
-    <t>Parallel</t>
-  </si>
-  <si>
     <t>Small</t>
   </si>
   <si>
     <t>Alan</t>
   </si>
   <si>
-    <t>16 Threads</t>
-  </si>
-  <si>
-    <t>8 Threads</t>
-  </si>
-  <si>
     <t>greatwall</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Qsort</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Report Data</t>
   </si>
 </sst>
 </file>
@@ -93,9 +111,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,208 +435,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF97FF-CA8D-45CF-BD95-EA998571ECA7}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.21875" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>32</v>
+      </c>
+      <c r="K2">
+        <v>64</v>
+      </c>
+      <c r="L2">
+        <v>512</v>
+      </c>
+      <c r="M2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>132.30799999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8.1921599999999994</v>
+      </c>
+      <c r="H3">
+        <v>4.9360099999999996</v>
+      </c>
+      <c r="I3">
+        <v>4.8595300000000003</v>
+      </c>
+      <c r="J3">
+        <v>4.6791099999999997</v>
+      </c>
+      <c r="K3">
+        <v>4.6358499999999996</v>
+      </c>
+      <c r="L3">
+        <v>3.71739</v>
+      </c>
+      <c r="M3">
+        <v>5.9404000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>134.82300000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.1353899999999992</v>
+      </c>
+      <c r="H4">
+        <v>4.9811800000000002</v>
+      </c>
+      <c r="I4">
+        <v>4.8255800000000004</v>
+      </c>
+      <c r="J4">
+        <v>4.74702</v>
+      </c>
+      <c r="K4">
+        <v>4.5963000000000003</v>
+      </c>
+      <c r="L4">
+        <v>2.77644</v>
+      </c>
+      <c r="M4">
+        <v>6.4530000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>133.31</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8.0823400000000003</v>
+      </c>
+      <c r="H5">
+        <v>4.9662899999999999</v>
+      </c>
+      <c r="I5">
+        <v>4.8240499999999997</v>
+      </c>
+      <c r="J5">
+        <v>4.6904599999999999</v>
+      </c>
+      <c r="K5">
+        <v>4.6741599999999996</v>
+      </c>
+      <c r="L5">
+        <v>2.7026400000000002</v>
+      </c>
+      <c r="M5">
+        <v>5.9998500000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <f>AVERAGE(F3:F5)</f>
+        <v>133.48033333333333</v>
+      </c>
+      <c r="G6" s="1">
+        <f>AVERAGE(G3:G5)</f>
+        <v>8.1366299999999985</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:K6" si="0">AVERAGE(H3:H5)</f>
+        <v>4.9611599999999996</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8363866666666668</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7055300000000004</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6354366666666671</v>
+      </c>
+      <c r="L6">
+        <v>3.7792599999999998</v>
+      </c>
+      <c r="M6" s="1">
+        <f>AVERAGE(M3:M5)</f>
+        <v>6.1310833333333337</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <f>F6/J6</f>
+        <v>28.366694789605702</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="4">
+        <v>25.227566666666664</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>7.7489233333333329</v>
+      </c>
+      <c r="R7" s="4">
+        <v>4.6553200000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="L8">
+        <v>2.5276399999999999</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="4">
+        <v>9.42544</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>3.7574933333333331</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1.95045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1024</v>
+      </c>
+      <c r="B9">
+        <v>25.509899999999998</v>
+      </c>
+      <c r="C9">
+        <v>7.9074200000000001</v>
+      </c>
+      <c r="D9">
+        <v>4.76938</v>
+      </c>
+      <c r="F9" s="1">
+        <v>19.142399999999999</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="J9">
+        <v>0.77398699999999998</v>
+      </c>
+      <c r="L9">
+        <v>3.7706</v>
+      </c>
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="4">
+        <f>AVERAGE(P7:P8)</f>
+        <v>17.326503333333331</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>AVERAGE(Q7:Q8)</f>
+        <v>5.7532083333333333</v>
+      </c>
+      <c r="R9" s="4">
+        <f>AVERAGE(R7:R8)</f>
+        <v>3.3028850000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>821</v>
+      </c>
+      <c r="B10">
+        <v>25.203099999999999</v>
+      </c>
+      <c r="C10">
+        <v>7.7882699999999998</v>
+      </c>
+      <c r="D10">
+        <v>4.7404400000000004</v>
+      </c>
+      <c r="F10" s="1">
+        <v>19.251300000000001</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="J10">
+        <v>0.63961999999999997</v>
+      </c>
+      <c r="L10">
+        <v>3.8051200000000001</v>
+      </c>
+      <c r="O10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4">
+        <f>$P$9/P9</f>
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="Q10" s="4">
+        <f t="shared" ref="Q10:R10" si="1">$P$9/Q9</f>
+        <v>3.0116245283428809</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="1"/>
+        <v>5.2458693939793033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>24.9697</v>
+      </c>
+      <c r="C11">
+        <v>7.5510799999999998</v>
+      </c>
+      <c r="D11">
+        <v>4.4561400000000004</v>
+      </c>
+      <c r="F11" s="1">
+        <v>19.142099999999999</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="J11">
+        <v>0.75676600000000005</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(L3:L10)</f>
+        <v>3.2970128571428567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B9:B11)</f>
+        <v>25.227566666666664</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="2">AVERAGE(C9:C11)</f>
+        <v>7.7489233333333329</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>4.6553200000000006</v>
+      </c>
+      <c r="F12" s="1">
+        <f>AVERAGE(F9:F11)</f>
+        <v>19.178599999999999</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <f t="shared" ref="G12:J12" si="3">AVERAGE(J9:J11)</f>
+        <v>0.72345766666666655</v>
+      </c>
+      <c r="L12">
+        <f>F6/L11</f>
+        <v>40.485232881076918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="J13">
+        <f>F12/J12</f>
+        <v>26.509636822794977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>$B$12/B12</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>$B$12/C12</f>
+        <v>3.2556221789091557</v>
+      </c>
+      <c r="D14">
+        <f>$B$12/D12</f>
+        <v>5.4190832567184772</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f>C12/D12</f>
+        <v>1.6645307590742058</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>640</v>
+      </c>
+      <c r="B17">
+        <v>9.3927899999999998</v>
+      </c>
+      <c r="C17">
+        <v>3.78301</v>
+      </c>
+      <c r="D17">
+        <v>1.9362299999999999</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>640</v>
+      </c>
+      <c r="B18">
+        <v>9.4254499999999997</v>
+      </c>
+      <c r="C18">
+        <v>3.7324299999999999</v>
+      </c>
+      <c r="D18">
+        <v>1.92635</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>9.4580800000000007</v>
+      </c>
+      <c r="C19">
+        <v>3.7570399999999999</v>
+      </c>
+      <c r="D19">
+        <v>1.9887699999999999</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(B17:B19)</f>
+        <v>9.42544</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:D20" si="4">AVERAGE(C17:C19)</f>
+        <v>3.7574933333333331</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>1.95045</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <f>$B$20/B20</f>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:D21" si="5">$B$20/C20</f>
+        <v>2.5084382496132176</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>4.8324437950216614</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f>C20/D20</f>
+        <v>1.9264750869457474</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>640</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>640</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="F24" s="1">
+        <v>1.3322499999999999</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="J24">
+        <v>3.9134799999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>304</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="F25" s="1">
+        <v>1.34314</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="J25">
+        <v>4.6380600000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>300</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="F26" s="1">
+        <v>1.31074</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="J26">
+        <v>3.0570300000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <f>AVERAGE(F24:F26)</f>
+        <v>1.3287100000000001</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
+        <f t="shared" ref="J27" si="6">AVERAGE(J24:J26)</f>
+        <v>3.8695233333333329E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="J28">
+        <f>F27/J27</f>
+        <v>34.337821109749093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\4th_Year\EEE4120F\Prac_2\4120F_Prac2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\EEE4120F\Codeblocks\Prac 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83673564-8967-41E4-A7DA-D0E2E3DA6ADC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF5A649F-1780-4CF6-B272-A8C9F6792F71}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Image</t>
   </si>
@@ -73,12 +72,21 @@
   </si>
   <si>
     <t>Report Data</t>
+  </si>
+  <si>
+    <t>Multi-Threaded</t>
+  </si>
+  <si>
+    <t>Golden Measure</t>
+  </si>
+  <si>
+    <t>Greatwall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -114,13 +122,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,40 +442,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF97FF-CA8D-45CF-BD95-EA998571ECA7}">
-  <dimension ref="A1:R43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.21875" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="P1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +507,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -523,7 +536,7 @@
         <v>5.9404000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F4" s="1">
         <v>134.82300000000001</v>
       </c>
@@ -549,7 +562,7 @@
         <v>6.4530000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F5" s="1">
         <v>133.31</v>
       </c>
@@ -575,7 +588,7 @@
         <v>5.9998500000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>11</v>
       </c>
@@ -620,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -634,17 +647,17 @@
       <c r="O7" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <v>25.227566666666664</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="2">
         <v>7.7489233333333329</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="2">
         <v>4.6553200000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -656,17 +669,17 @@
       <c r="O8" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <v>9.42544</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="2">
         <v>3.7574933333333331</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <v>1.95045</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1024</v>
       </c>
@@ -692,20 +705,20 @@
       <c r="O9" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <f>AVERAGE(P7:P8)</f>
         <v>17.326503333333331</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
         <f>AVERAGE(Q7:Q8)</f>
         <v>5.7532083333333333</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="2">
         <f>AVERAGE(R7:R8)</f>
         <v>3.3028850000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>821</v>
       </c>
@@ -731,20 +744,20 @@
       <c r="O10" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <f>$P$9/P9</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="2">
         <f t="shared" ref="Q10:R10" si="1">$P$9/Q9</f>
         <v>3.0116245283428809</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="2">
         <f t="shared" si="1"/>
         <v>5.2458693939793033</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>24.9697</v>
       </c>
@@ -766,7 +779,7 @@
         <v>3.2970128571428567</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -790,7 +803,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f t="shared" ref="G12:J12" si="3">AVERAGE(J9:J11)</f>
+        <f t="shared" ref="J12" si="3">AVERAGE(J9:J11)</f>
         <v>0.72345766666666655</v>
       </c>
       <c r="L12">
@@ -798,7 +811,7 @@
         <v>40.485232881076918</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="J13">
@@ -806,7 +819,7 @@
         <v>26.509636822794977</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -825,7 +838,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15">
         <f>C12/D12</f>
         <v>1.6645307590742058</v>
@@ -833,14 +846,14 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>640</v>
       </c>
@@ -856,7 +869,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>640</v>
       </c>
@@ -872,7 +885,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>9.4580800000000007</v>
       </c>
@@ -885,7 +898,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -903,8 +916,9 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -923,7 +937,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22">
         <f>C20/D20</f>
         <v>1.9264750869457474</v>
@@ -931,11 +945,11 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -947,7 +961,7 @@
         <v>3.9134799999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>304</v>
       </c>
@@ -959,7 +973,7 @@
         <v>4.6380600000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>300</v>
       </c>
@@ -971,7 +985,7 @@
         <v>3.0570300000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F27" s="1">
         <f>AVERAGE(F24:F26)</f>
         <v>1.3287100000000001</v>
@@ -984,7 +998,7 @@
         <v>3.8695233333333329E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="J28">
@@ -992,65 +1006,107 @@
         <v>34.337821109749093</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F32" s="1"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>133.48033333333299</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4.7055300000000004</v>
+      </c>
+      <c r="E33">
+        <f>C33/D33</f>
+        <v>28.366694789605631</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>19.178599999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.72345766666666655</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E35" si="7">C34/D34</f>
+        <v>26.509636822794977</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.3287100000000001</v>
+      </c>
+      <c r="D35">
+        <v>3.8695233333333329E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>34.337821109749093</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <f>AVERAGE(E33:E35)</f>
+        <v>29.738050907383229</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\4th_Year\EEE4120F\Prac_2\4120F_Prac2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83673564-8967-41E4-A7DA-D0E2E3DA6ADC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E32AF8-11F3-4741-94F5-62AE676FA5FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF5A649F-1780-4CF6-B272-A8C9F6792F71}"/>
   </bookViews>
@@ -114,13 +114,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,13 +456,13 @@
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="P1" t="s">
         <v>13</v>
       </c>
@@ -622,25 +622,41 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:I7" si="1">$F$6/G6</f>
+        <v>16.404867043645016</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>26.905065213243141</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>27.599185617913097</v>
+      </c>
       <c r="J7" s="1">
-        <f>F6/J6</f>
+        <f>$F$6/J6</f>
         <v>28.366694789605702</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:M7" si="2">$F$6/K6</f>
+        <v>28.795633061538251</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>21.771084501107744</v>
+      </c>
       <c r="O7" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <v>25.227566666666664</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="2">
         <v>7.7489233333333329</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="2">
         <v>4.6553200000000006</v>
       </c>
     </row>
@@ -656,13 +672,13 @@
       <c r="O8" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <v>9.42544</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="2">
         <v>3.7574933333333331</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <v>1.95045</v>
       </c>
     </row>
@@ -692,15 +708,15 @@
       <c r="O9" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <f>AVERAGE(P7:P8)</f>
         <v>17.326503333333331</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
         <f>AVERAGE(Q7:Q8)</f>
         <v>5.7532083333333333</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="2">
         <f>AVERAGE(R7:R8)</f>
         <v>3.3028850000000003</v>
       </c>
@@ -731,16 +747,16 @@
       <c r="O10" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <f>$P$9/P9</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="4">
-        <f t="shared" ref="Q10:R10" si="1">$P$9/Q9</f>
+      <c r="Q10" s="2">
+        <f t="shared" ref="Q10:R10" si="3">$P$9/Q9</f>
         <v>3.0116245283428809</v>
       </c>
-      <c r="R10" s="4">
-        <f t="shared" si="1"/>
+      <c r="R10" s="2">
+        <f t="shared" si="3"/>
         <v>5.2458693939793033</v>
       </c>
     </row>
@@ -775,11 +791,11 @@
         <v>25.227566666666664</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:D12" si="2">AVERAGE(C9:C11)</f>
+        <f t="shared" ref="C12:D12" si="4">AVERAGE(C9:C11)</f>
         <v>7.7489233333333329</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6553200000000006</v>
       </c>
       <c r="F12" s="1">
@@ -790,7 +806,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f t="shared" ref="G12:J12" si="3">AVERAGE(J9:J11)</f>
+        <f t="shared" ref="J12" si="5">AVERAGE(J9:J11)</f>
         <v>0.72345766666666655</v>
       </c>
       <c r="L12">
@@ -894,11 +910,11 @@
         <v>9.42544</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="4">AVERAGE(C17:C19)</f>
+        <f t="shared" ref="C20:D20" si="6">AVERAGE(C17:C19)</f>
         <v>3.7574933333333331</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.95045</v>
       </c>
       <c r="F20" s="1"/>
@@ -913,11 +929,11 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D21" si="5">$B$20/C20</f>
+        <f t="shared" ref="C21:D21" si="7">$B$20/C20</f>
         <v>2.5084382496132176</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8324437950216614</v>
       </c>
       <c r="F21" s="1"/>
@@ -980,7 +996,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <f t="shared" ref="J27" si="6">AVERAGE(J24:J26)</f>
+        <f t="shared" ref="J27" si="8">AVERAGE(J24:J26)</f>
         <v>3.8695233333333329E-2</v>
       </c>
     </row>
@@ -1058,5 +1074,6 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\4th_Year\EEE4120F\Prac_2\4120F_Prac2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E32AF8-11F3-4741-94F5-62AE676FA5FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83673564-8967-41E4-A7DA-D0E2E3DA6ADC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF5A649F-1780-4CF6-B272-A8C9F6792F71}"/>
   </bookViews>
@@ -114,13 +114,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,13 +456,13 @@
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
       <c r="P1" t="s">
         <v>13</v>
       </c>
@@ -622,41 +622,25 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <f t="shared" ref="G7:I7" si="1">$F$6/G6</f>
-        <v>16.404867043645016</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>26.905065213243141</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>27.599185617913097</v>
-      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <f>$F$6/J6</f>
+        <f>F6/J6</f>
         <v>28.366694789605702</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" ref="K7:M7" si="2">$F$6/K6</f>
-        <v>28.795633061538251</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
-        <f t="shared" si="2"/>
-        <v>21.771084501107744</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="O7" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="4">
         <v>25.227566666666664</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="4">
         <v>7.7489233333333329</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="4">
         <v>4.6553200000000006</v>
       </c>
     </row>
@@ -672,13 +656,13 @@
       <c r="O8" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="4">
         <v>9.42544</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="4">
         <v>3.7574933333333331</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="4">
         <v>1.95045</v>
       </c>
     </row>
@@ -708,15 +692,15 @@
       <c r="O9" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="4">
         <f>AVERAGE(P7:P8)</f>
         <v>17.326503333333331</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="4">
         <f>AVERAGE(Q7:Q8)</f>
         <v>5.7532083333333333</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="4">
         <f>AVERAGE(R7:R8)</f>
         <v>3.3028850000000003</v>
       </c>
@@ -747,16 +731,16 @@
       <c r="O10" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="4">
         <f>$P$9/P9</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="2">
-        <f t="shared" ref="Q10:R10" si="3">$P$9/Q9</f>
+      <c r="Q10" s="4">
+        <f t="shared" ref="Q10:R10" si="1">$P$9/Q9</f>
         <v>3.0116245283428809</v>
       </c>
-      <c r="R10" s="2">
-        <f t="shared" si="3"/>
+      <c r="R10" s="4">
+        <f t="shared" si="1"/>
         <v>5.2458693939793033</v>
       </c>
     </row>
@@ -791,11 +775,11 @@
         <v>25.227566666666664</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:D12" si="4">AVERAGE(C9:C11)</f>
+        <f t="shared" ref="C12:D12" si="2">AVERAGE(C9:C11)</f>
         <v>7.7489233333333329</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.6553200000000006</v>
       </c>
       <c r="F12" s="1">
@@ -806,7 +790,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f t="shared" ref="J12" si="5">AVERAGE(J9:J11)</f>
+        <f t="shared" ref="G12:J12" si="3">AVERAGE(J9:J11)</f>
         <v>0.72345766666666655</v>
       </c>
       <c r="L12">
@@ -910,11 +894,11 @@
         <v>9.42544</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="6">AVERAGE(C17:C19)</f>
+        <f t="shared" ref="C20:D20" si="4">AVERAGE(C17:C19)</f>
         <v>3.7574933333333331</v>
       </c>
       <c r="D20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.95045</v>
       </c>
       <c r="F20" s="1"/>
@@ -929,11 +913,11 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D21" si="7">$B$20/C20</f>
+        <f t="shared" ref="C21:D21" si="5">$B$20/C20</f>
         <v>2.5084382496132176</v>
       </c>
       <c r="D21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.8324437950216614</v>
       </c>
       <c r="F21" s="1"/>
@@ -996,7 +980,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <f t="shared" ref="J27" si="8">AVERAGE(J24:J26)</f>
+        <f t="shared" ref="J27" si="6">AVERAGE(J24:J26)</f>
         <v>3.8695233333333329E-2</v>
       </c>
     </row>
@@ -1074,6 +1058,5 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>